--- a/src/NexusPy/modules/Mensal SISBAR Barras ausentes/assets/Casos fev26.xlsx
+++ b/src/NexusPy/modules/Mensal SISBAR Barras ausentes/assets/Casos fev26.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onsbr-my.sharepoint.com/personal/marcos_souza_ons_org_br/Documents/01 - Pasta de trabalho/Verificação barras/SISBAR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onsbr-my.sharepoint.com/personal/pedrovictor_veras_ons_org_br/Documents/Documentos/ESTAGIO_ONS_PVRV_2025/GitHub/Palkia-PDF-extractor/src/NexusPy/modules/Mensal SISBAR Barras ausentes/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{34ECD2D1-74E9-408B-8124-ED535F06C97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BFF6FBB-6C9E-4D91-9A7A-DCF867CBD5A9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="867" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="867" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOME_BARRAS" sheetId="4" r:id="rId1"/>
@@ -2916,6 +2916,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2926,7 +2927,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="date_style" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -3243,17 +3243,17 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="3.7265625" customWidth="1"/>
-    <col min="16" max="16" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.453125" customWidth="1"/>
+    <col min="15" max="15" width="3.7109375" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>435</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>45992</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>23</v>
       </c>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="Q3" s="20"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>250</v>
       </c>
@@ -3410,7 +3410,7 @@
       </c>
       <c r="Q4" s="20"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>511</v>
       </c>
@@ -3458,7 +3458,7 @@
       </c>
       <c r="Q5" s="20"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>806</v>
       </c>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="Q6" s="20"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1040</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4016</v>
       </c>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="Q8" s="20"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4203</v>
       </c>
@@ -3652,7 +3652,7 @@
       </c>
       <c r="Q9" s="20"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4206</v>
       </c>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="Q10" s="20"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4207</v>
       </c>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="Q11" s="20"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4376</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8159</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8823</v>
       </c>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="Q14" s="20"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8830</v>
       </c>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="Q15" s="20"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8833</v>
       </c>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="Q16" s="20"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8835</v>
       </c>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="Q17" s="20"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8869</v>
       </c>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="Q18" s="20"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8870</v>
       </c>
@@ -4136,7 +4136,7 @@
       </c>
       <c r="Q19" s="20"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8871</v>
       </c>
@@ -4184,7 +4184,7 @@
       </c>
       <c r="Q20" s="20"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>8874</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8875</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8876</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>9561</v>
       </c>
@@ -4382,7 +4382,7 @@
       </c>
       <c r="Q24" s="20"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>9682</v>
       </c>
@@ -4430,7 +4430,7 @@
       </c>
       <c r="Q25" s="20"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10641</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>44322</v>
       </c>
@@ -4528,7 +4528,7 @@
       </c>
       <c r="Q27" s="20"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>44323</v>
       </c>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="Q28" s="20"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>44327</v>
       </c>
@@ -4624,7 +4624,7 @@
       </c>
       <c r="Q29" s="20"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>44410</v>
       </c>
@@ -4672,7 +4672,7 @@
       </c>
       <c r="Q30" s="20"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>45161</v>
       </c>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="Q31" s="20"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>45681</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>45984</v>
       </c>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="Q33" s="20"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>46543</v>
       </c>
@@ -4866,16 +4866,16 @@
       </c>
       <c r="Q34" s="20"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -4993,22 +4993,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>779</v>
       </c>
@@ -5026,25 +5026,25 @@
       </c>
       <c r="L1" s="20"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>769</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="36" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="37" t="s">
         <v>462</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="H2" s="37" t="s">
+      <c r="E2" s="35"/>
+      <c r="H2" s="38" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
       <c r="L2" s="20"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31</v>
       </c>
@@ -5099,7 +5099,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>47</v>
       </c>
@@ -5121,7 +5121,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>781</v>
       </c>
@@ -5145,7 +5145,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1549</v>
       </c>
@@ -5169,7 +5169,7 @@
       <c r="J7" s="33"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1577</v>
       </c>
@@ -5193,7 +5193,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1585</v>
       </c>
@@ -5223,7 +5223,7 @@
       </c>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1586</v>
       </c>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2313</v>
       </c>
@@ -5275,7 +5275,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2948</v>
       </c>
@@ -5299,7 +5299,7 @@
       <c r="J12" s="33"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3949</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4445</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5205</v>
       </c>
@@ -5383,7 +5383,7 @@
       <c r="J15" s="33"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5805</v>
       </c>
@@ -5405,7 +5405,7 @@
       <c r="J16" s="33"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6104</v>
       </c>
@@ -5427,7 +5427,7 @@
       <c r="J17" s="33"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7668</v>
       </c>
@@ -5449,7 +5449,7 @@
       <c r="J18" s="33"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7669</v>
       </c>
@@ -5471,7 +5471,7 @@
       <c r="J19" s="33"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8004</v>
       </c>
@@ -5493,7 +5493,7 @@
       <c r="J20" s="33"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>8812</v>
       </c>
@@ -5515,7 +5515,7 @@
       <c r="J21" s="33"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8865</v>
       </c>
@@ -5537,7 +5537,7 @@
       <c r="J22" s="33"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8866</v>
       </c>
@@ -5559,7 +5559,7 @@
       <c r="J23" s="33"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8867</v>
       </c>
@@ -5581,7 +5581,7 @@
       <c r="J24" s="33"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8868</v>
       </c>
@@ -5603,7 +5603,7 @@
       <c r="J25" s="33"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>8872</v>
       </c>
@@ -5625,7 +5625,7 @@
       <c r="J26" s="33"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8873</v>
       </c>
@@ -5647,7 +5647,7 @@
       <c r="J27" s="33"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>9025</v>
       </c>
@@ -5677,7 +5677,7 @@
       </c>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>9026</v>
       </c>
@@ -5699,7 +5699,7 @@
       <c r="J29" s="33"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>9115</v>
       </c>
@@ -5721,7 +5721,7 @@
       <c r="J30" s="33"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>9452</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>9453</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10322</v>
       </c>
@@ -5803,7 +5803,7 @@
       <c r="J33" s="33"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10363</v>
       </c>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>13901</v>
       </c>
@@ -5853,7 +5853,7 @@
       <c r="J35" s="33"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>17642</v>
       </c>
@@ -5875,7 +5875,7 @@
       <c r="J36" s="33"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>23901</v>
       </c>
@@ -5897,7 +5897,7 @@
       <c r="J37" s="33"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>23940</v>
       </c>
@@ -5919,7 +5919,7 @@
       <c r="J38" s="33"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>24145</v>
       </c>
@@ -5941,7 +5941,7 @@
       <c r="J39" s="33"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>27625</v>
       </c>
@@ -5963,7 +5963,7 @@
       <c r="J40" s="33"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>27639</v>
       </c>
@@ -5985,7 +5985,7 @@
       <c r="J41" s="33"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>27642</v>
       </c>
@@ -6007,7 +6007,7 @@
       <c r="J42" s="33"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40612</v>
       </c>
@@ -6031,7 +6031,7 @@
       <c r="J43" s="33"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>40613</v>
       </c>
@@ -6055,7 +6055,7 @@
       <c r="J44" s="33"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>40725</v>
       </c>
@@ -6079,7 +6079,7 @@
       <c r="J45" s="33"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>40726</v>
       </c>
@@ -6103,7 +6103,7 @@
       <c r="J46" s="33"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44448</v>
       </c>
@@ -6127,7 +6127,7 @@
       <c r="J47" s="33"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>44449</v>
       </c>
@@ -6151,7 +6151,7 @@
       <c r="J48" s="33"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>45274</v>
       </c>
@@ -6173,7 +6173,7 @@
       <c r="J49" s="33"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>45384</v>
       </c>
@@ -6203,7 +6203,7 @@
       </c>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>45485</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>45548</v>
       </c>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>45549</v>
       </c>
@@ -6295,7 +6295,7 @@
       </c>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>46474</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>46475</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>46476</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>46601</v>
       </c>
@@ -6415,7 +6415,7 @@
       </c>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>46603</v>
       </c>
@@ -6445,7 +6445,7 @@
       </c>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>46637</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>46638</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>46639</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>46640</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>46641</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>46642</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>46810</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>47072</v>
       </c>
@@ -6691,7 +6691,7 @@
       <c r="J66" s="33"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>47106</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>47108</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>47110</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>47120</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>47147</v>
       </c>
@@ -6843,7 +6843,7 @@
       <c r="J71" s="33"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>47175</v>
       </c>
@@ -6867,7 +6867,7 @@
       <c r="J72" s="33"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>47480</v>
       </c>
@@ -6891,7 +6891,7 @@
       <c r="J73" s="33"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>47510</v>
       </c>
@@ -6915,7 +6915,7 @@
       <c r="J74" s="33"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>47812</v>
       </c>
@@ -6937,7 +6937,7 @@
       <c r="J75" s="33"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>48001</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>48012</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>48013</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>48015</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>48029</v>
       </c>
@@ -7087,7 +7087,7 @@
       <c r="J80" s="33"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>48031</v>
       </c>
@@ -7109,7 +7109,7 @@
       <c r="J81" s="33"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>48141</v>
       </c>
@@ -7131,7 +7131,7 @@
       <c r="J82" s="33"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>48356</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>48357</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>48358</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>48359</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>48361</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>48363</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>48420</v>
       </c>
@@ -7333,7 +7333,7 @@
       <c r="J89" s="33"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>48504</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>48542</v>
       </c>
@@ -7385,7 +7385,7 @@
       <c r="J91" s="33"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>48662</v>
       </c>
@@ -7422,12 +7422,12 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
     <col min="4" max="5" width="5" customWidth="1"/>
@@ -7438,10 +7438,10 @@
     <col min="10" max="11" width="21" customWidth="1"/>
     <col min="12" max="12" width="5" customWidth="1"/>
     <col min="13" max="15" width="6" customWidth="1"/>
-    <col min="17" max="17" width="27.1796875" customWidth="1"/>
+    <col min="17" max="17" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>783</v>
       </c>
@@ -7451,33 +7451,33 @@
         <v>789</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>769</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="37" t="s">
         <v>462</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
       <c r="S2" s="23" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -7529,8 +7529,8 @@
       <c r="R3" s="21"/>
       <c r="S3" s="21"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="38">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="34">
         <v>7647</v>
       </c>
       <c r="B4" t="s">
@@ -7576,8 +7576,8 @@
         <v>793</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="38">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="34">
         <v>9385</v>
       </c>
       <c r="B5" t="s">
@@ -7620,8 +7620,8 @@
       </c>
       <c r="P5" s="19"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="38">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="34">
         <v>9412</v>
       </c>
       <c r="B6" t="s">
@@ -7664,8 +7664,8 @@
       </c>
       <c r="P6" s="19"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="38">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="34">
         <v>9841</v>
       </c>
       <c r="B7" t="s">
@@ -7708,8 +7708,8 @@
         <v>794</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="38">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="34">
         <v>10264</v>
       </c>
       <c r="B8" t="s">
@@ -7755,8 +7755,8 @@
         <v>795</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="38">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="34">
         <v>10803</v>
       </c>
       <c r="B9" t="s">
@@ -7799,8 +7799,8 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="38">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="34">
         <v>10931</v>
       </c>
       <c r="B10" t="s">
@@ -7840,8 +7840,8 @@
       </c>
       <c r="P10" s="19"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="38">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="34">
         <v>44763</v>
       </c>
       <c r="B11" t="s">
@@ -7878,8 +7878,8 @@
       </c>
       <c r="P11" s="19"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="38">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="34">
         <v>44773</v>
       </c>
       <c r="B12" t="s">
@@ -7916,8 +7916,8 @@
       </c>
       <c r="P12" s="19"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="38">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="34">
         <v>44774</v>
       </c>
       <c r="B13" t="s">
@@ -7954,8 +7954,8 @@
       </c>
       <c r="P13" s="19"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="38">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="34">
         <v>45259</v>
       </c>
       <c r="B14" t="s">
@@ -8001,8 +8001,8 @@
         <v>796</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="38">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="34">
         <v>45262</v>
       </c>
       <c r="B15" t="s">
@@ -8048,8 +8048,8 @@
         <v>796</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="38">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="34">
         <v>45519</v>
       </c>
       <c r="B16" t="s">
@@ -8089,8 +8089,8 @@
       </c>
       <c r="P16" s="19"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="38">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="34">
         <v>45522</v>
       </c>
       <c r="B17" t="s">
@@ -8137,8 +8137,8 @@
         <v>793</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="38">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="34">
         <v>47273</v>
       </c>
       <c r="B18" t="s">
@@ -8184,8 +8184,8 @@
         <v>797</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="38">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="34">
         <v>47274</v>
       </c>
       <c r="B19" t="s">
@@ -8231,8 +8231,8 @@
         <v>798</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="38">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="34">
         <v>47275</v>
       </c>
       <c r="B20" t="s">
@@ -8278,8 +8278,8 @@
         <v>799</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="38">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="34">
         <v>47323</v>
       </c>
       <c r="B21" t="s">
@@ -8329,8 +8329,8 @@
         <v>801</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="38">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="34">
         <v>47342</v>
       </c>
       <c r="B22" t="s">
@@ -8382,8 +8382,8 @@
         <v>803</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="38">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="34">
         <v>47584</v>
       </c>
       <c r="B23" t="s">
@@ -8435,8 +8435,8 @@
         <v>803</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="38">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="34">
         <v>48440</v>
       </c>
       <c r="B24" t="s">
@@ -8493,11 +8493,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -8506,41 +8506,41 @@
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="5" customWidth="1"/>
     <col min="13" max="15" width="6" customWidth="1"/>
-    <col min="17" max="17" width="72.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="72.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>769</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="37" t="s">
         <v>462</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3424</v>
       </c>
@@ -8630,7 +8630,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7823</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7824</v>
       </c>
@@ -8708,7 +8708,7 @@
       </c>
       <c r="Q6" s="19"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7825</v>
       </c>
@@ -8746,7 +8746,7 @@
       </c>
       <c r="Q7" s="19"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7850</v>
       </c>
@@ -8784,7 +8784,7 @@
       </c>
       <c r="Q8" s="19"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7851</v>
       </c>
@@ -8822,7 +8822,7 @@
       </c>
       <c r="Q9" s="19"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10683</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10807</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10808</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>44636</v>
       </c>
@@ -8989,7 +8989,7 @@
       </c>
       <c r="Q13" s="19"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>44637</v>
       </c>
@@ -9030,7 +9030,7 @@
       </c>
       <c r="Q14" s="19"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>44638</v>
       </c>
@@ -9068,7 +9068,7 @@
       </c>
       <c r="Q15" s="19"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>44639</v>
       </c>
@@ -9112,7 +9112,7 @@
       </c>
       <c r="Q16" s="19"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>44640</v>
       </c>
@@ -9150,7 +9150,7 @@
       </c>
       <c r="Q17" s="19"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>44641</v>
       </c>
@@ -9188,7 +9188,7 @@
       </c>
       <c r="Q18" s="19"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>44642</v>
       </c>
@@ -9229,7 +9229,7 @@
       </c>
       <c r="Q19" s="19"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>44769</v>
       </c>
@@ -9267,7 +9267,7 @@
       </c>
       <c r="Q20" s="19"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>44770</v>
       </c>
@@ -9305,7 +9305,7 @@
       </c>
       <c r="Q21" s="19"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>44771</v>
       </c>
@@ -9343,7 +9343,7 @@
       </c>
       <c r="Q22" s="19"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>44772</v>
       </c>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="Q23" s="19"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>44819</v>
       </c>
@@ -9419,7 +9419,7 @@
       </c>
       <c r="Q24" s="19"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>45989</v>
       </c>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="Q25" s="19"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>45990</v>
       </c>
@@ -9495,7 +9495,7 @@
       </c>
       <c r="Q26" s="19"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>45991</v>
       </c>
@@ -9533,7 +9533,7 @@
       </c>
       <c r="Q27" s="19"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>45992</v>
       </c>
@@ -9571,7 +9571,7 @@
       </c>
       <c r="Q28" s="19"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>47961</v>
       </c>
@@ -9612,7 +9612,7 @@
       </c>
       <c r="Q29" s="19"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>48579</v>
       </c>
@@ -9648,7 +9648,7 @@
       </c>
       <c r="Q30" s="19"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>48764</v>
       </c>
@@ -9684,7 +9684,7 @@
       </c>
       <c r="Q31" s="19"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>48765</v>
       </c>
@@ -9720,7 +9720,7 @@
       </c>
       <c r="Q32" s="19"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -9739,7 +9739,7 @@
       <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -9758,7 +9758,7 @@
       <c r="P36" s="19"/>
       <c r="Q36" s="19"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="19"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -9777,7 +9777,7 @@
       <c r="P37" s="19"/>
       <c r="Q37" s="19"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -9796,7 +9796,7 @@
       <c r="P38" s="19"/>
       <c r="Q38" s="19"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -9815,7 +9815,7 @@
       <c r="P39" s="19"/>
       <c r="Q39" s="19"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="19"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -9834,7 +9834,7 @@
       <c r="P40" s="19"/>
       <c r="Q40" s="19"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="19"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -9853,7 +9853,7 @@
       <c r="P41" s="19"/>
       <c r="Q41" s="19"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="19"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -9872,7 +9872,7 @@
       <c r="P42" s="19"/>
       <c r="Q42" s="19"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -9891,7 +9891,7 @@
       <c r="P43" s="19"/>
       <c r="Q43" s="19"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -9910,7 +9910,7 @@
       <c r="P44" s="19"/>
       <c r="Q44" s="19"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -9929,7 +9929,7 @@
       <c r="P45" s="19"/>
       <c r="Q45" s="19"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -9948,7 +9948,7 @@
       <c r="P46" s="19"/>
       <c r="Q46" s="19"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -9967,7 +9967,7 @@
       <c r="P47" s="19"/>
       <c r="Q47" s="19"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
@@ -10000,9 +10000,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -10015,36 +10017,36 @@
     <col min="10" max="11" width="21" customWidth="1"/>
     <col min="12" max="12" width="5" customWidth="1"/>
     <col min="13" max="15" width="6" customWidth="1"/>
-    <col min="17" max="17" width="82.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="82.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>769</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="37" t="s">
         <v>462</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -10094,7 +10096,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1038</v>
       </c>
@@ -10142,7 +10144,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2178</v>
       </c>
@@ -10182,7 +10184,7 @@
       </c>
       <c r="Q5" s="19"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2662</v>
       </c>
@@ -10227,7 +10229,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5687</v>
       </c>
@@ -10273,7 +10275,7 @@
       </c>
       <c r="Q7" s="19"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5735</v>
       </c>
@@ -10316,7 +10318,7 @@
       </c>
       <c r="Q8" s="19"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6365</v>
       </c>
@@ -10359,7 +10361,7 @@
       </c>
       <c r="Q9" s="19"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7171</v>
       </c>
@@ -10399,7 +10401,7 @@
       </c>
       <c r="Q10" s="19"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8026</v>
       </c>
@@ -10445,7 +10447,7 @@
       </c>
       <c r="Q11" s="19"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8274</v>
       </c>
@@ -10491,7 +10493,7 @@
       </c>
       <c r="Q12" s="19"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8522</v>
       </c>
@@ -10531,7 +10533,7 @@
       </c>
       <c r="Q13" s="19"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9300</v>
       </c>
@@ -10577,7 +10579,7 @@
       </c>
       <c r="Q14" s="19"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9974</v>
       </c>
@@ -10620,7 +10622,7 @@
       </c>
       <c r="Q15" s="19"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>46980</v>
       </c>
@@ -10666,7 +10668,7 @@
       </c>
       <c r="Q16" s="19"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>47076</v>
       </c>
@@ -10712,7 +10714,7 @@
       </c>
       <c r="Q17" s="19"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>47281</v>
       </c>
@@ -10758,7 +10760,7 @@
       </c>
       <c r="Q18" s="19"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>47282</v>
       </c>
@@ -10804,7 +10806,7 @@
       </c>
       <c r="Q19" s="19"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>47289</v>
       </c>
@@ -10852,7 +10854,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>47734</v>
       </c>
@@ -10908,7 +10910,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -10923,36 +10925,36 @@
     <col min="13" max="13" width="6" customWidth="1"/>
     <col min="14" max="14" width="5" customWidth="1"/>
     <col min="15" max="15" width="6" customWidth="1"/>
-    <col min="17" max="17" width="73.26953125" customWidth="1"/>
+    <col min="17" max="17" width="73.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>769</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="37" t="s">
         <v>462</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -11002,7 +11004,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>440</v>
       </c>
@@ -11042,7 +11044,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1312</v>
       </c>
@@ -11088,7 +11090,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8320</v>
       </c>
@@ -11134,7 +11136,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8323</v>
       </c>
@@ -11177,7 +11179,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8348</v>
       </c>
@@ -11220,7 +11222,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10376</v>
       </c>
@@ -11263,7 +11265,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10728</v>
       </c>
@@ -11309,7 +11311,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10730</v>
       </c>
@@ -11355,7 +11357,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10734</v>
       </c>
@@ -11401,7 +11403,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10735</v>
       </c>
@@ -11447,7 +11449,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10801</v>
       </c>
@@ -11490,7 +11492,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>41920</v>
       </c>
@@ -11531,7 +11533,7 @@
       </c>
       <c r="Q15" s="19"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>46183</v>
       </c>
@@ -11574,7 +11576,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>48229</v>
       </c>
@@ -11617,7 +11619,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>48230</v>
       </c>
@@ -11660,7 +11662,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>48233</v>
       </c>
@@ -11717,9 +11719,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -11732,36 +11736,36 @@
     <col min="10" max="11" width="21" customWidth="1"/>
     <col min="12" max="12" width="5" customWidth="1"/>
     <col min="13" max="15" width="6" customWidth="1"/>
-    <col min="17" max="17" width="149.453125" customWidth="1"/>
+    <col min="17" max="17" width="149.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>769</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="37" t="s">
         <v>462</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -11811,7 +11815,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>211</v>
       </c>
@@ -11850,7 +11854,7 @@
       <c r="R4" s="19"/>
       <c r="S4" s="19"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>212</v>
       </c>
@@ -11890,7 +11894,7 @@
       <c r="R5" s="19"/>
       <c r="S5" s="19"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1162</v>
       </c>
@@ -11932,7 +11936,7 @@
       <c r="R6" s="19"/>
       <c r="S6" s="19"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1181</v>
       </c>
@@ -11974,7 +11978,7 @@
       <c r="R7" s="19"/>
       <c r="S7" s="19"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1499</v>
       </c>
@@ -12016,7 +12020,7 @@
       <c r="R8" s="19"/>
       <c r="S8" s="19"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1619</v>
       </c>
@@ -12058,7 +12062,7 @@
       <c r="R9" s="19"/>
       <c r="S9" s="19"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2481</v>
       </c>
@@ -12100,7 +12104,7 @@
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3229</v>
       </c>
@@ -12142,7 +12146,7 @@
       <c r="R11" s="19"/>
       <c r="S11" s="19"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3438</v>
       </c>
@@ -12182,7 +12186,7 @@
       <c r="R12" s="19"/>
       <c r="S12" s="19"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3439</v>
       </c>
@@ -12222,7 +12226,7 @@
       <c r="R13" s="19"/>
       <c r="S13" s="19"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4498</v>
       </c>
@@ -12264,7 +12268,7 @@
       <c r="R14" s="19"/>
       <c r="S14" s="19"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4499</v>
       </c>
@@ -12306,7 +12310,7 @@
       <c r="R15" s="19"/>
       <c r="S15" s="19"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5388</v>
       </c>
@@ -12346,7 +12350,7 @@
       <c r="R16" s="19"/>
       <c r="S16" s="19"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5450</v>
       </c>
@@ -12388,7 +12392,7 @@
       <c r="R17" s="19"/>
       <c r="S17" s="19"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5509</v>
       </c>
@@ -12428,7 +12432,7 @@
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5596</v>
       </c>
@@ -12468,7 +12472,7 @@
       <c r="R19" s="19"/>
       <c r="S19" s="19"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7037</v>
       </c>
@@ -12510,7 +12514,7 @@
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7038</v>
       </c>
@@ -12552,7 +12556,7 @@
       <c r="R21" s="19"/>
       <c r="S21" s="19"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>7519</v>
       </c>
@@ -12594,7 +12598,7 @@
       <c r="R22" s="19"/>
       <c r="S22" s="19"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>7520</v>
       </c>
@@ -12636,7 +12640,7 @@
       <c r="R23" s="19"/>
       <c r="S23" s="19"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>7566</v>
       </c>
@@ -12678,7 +12682,7 @@
       <c r="R24" s="19"/>
       <c r="S24" s="19"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>7567</v>
       </c>
@@ -12720,7 +12724,7 @@
       <c r="R25" s="19"/>
       <c r="S25" s="19"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>8287</v>
       </c>
@@ -12764,7 +12768,7 @@
       </c>
       <c r="S26" s="19"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8293</v>
       </c>
@@ -12806,7 +12810,7 @@
       <c r="R27" s="19"/>
       <c r="S27" s="19"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8319</v>
       </c>
@@ -12846,7 +12850,7 @@
       <c r="R28" s="19"/>
       <c r="S28" s="19"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8349</v>
       </c>
@@ -12886,7 +12890,7 @@
       <c r="R29" s="19"/>
       <c r="S29" s="19"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>8458</v>
       </c>
@@ -12926,7 +12930,7 @@
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8585</v>
       </c>
@@ -12966,7 +12970,7 @@
       <c r="R31" s="19"/>
       <c r="S31" s="19"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>8586</v>
       </c>
@@ -13006,7 +13010,7 @@
       <c r="R32" s="19"/>
       <c r="S32" s="19"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9633</v>
       </c>
@@ -13048,7 +13052,7 @@
       <c r="R33" s="19"/>
       <c r="S33" s="19"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9855</v>
       </c>
@@ -13090,7 +13094,7 @@
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10055</v>
       </c>
@@ -13132,7 +13136,7 @@
       <c r="R35" s="25"/>
       <c r="S35" s="19"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10056</v>
       </c>
@@ -13174,7 +13178,7 @@
       <c r="R36" s="25"/>
       <c r="S36" s="19"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10057</v>
       </c>
@@ -13216,7 +13220,7 @@
       <c r="R37" s="25"/>
       <c r="S37" s="19"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10058</v>
       </c>
@@ -13258,7 +13262,7 @@
       <c r="R38" s="25"/>
       <c r="S38" s="19"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10059</v>
       </c>
@@ -13300,7 +13304,7 @@
       <c r="R39" s="25"/>
       <c r="S39" s="19"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10060</v>
       </c>
@@ -13342,7 +13346,7 @@
       <c r="R40" s="25"/>
       <c r="S40" s="19"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10061</v>
       </c>
@@ -13384,7 +13388,7 @@
       <c r="R41" s="25"/>
       <c r="S41" s="19"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>10062</v>
       </c>
@@ -13426,7 +13430,7 @@
       <c r="R42" s="25"/>
       <c r="S42" s="19"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>10063</v>
       </c>
@@ -13468,7 +13472,7 @@
       <c r="R43" s="25"/>
       <c r="S43" s="19"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10064</v>
       </c>
@@ -13510,7 +13514,7 @@
       <c r="R44" s="25"/>
       <c r="S44" s="19"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10065</v>
       </c>
@@ -13552,7 +13556,7 @@
       <c r="R45" s="25"/>
       <c r="S45" s="19"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10066</v>
       </c>
@@ -13594,7 +13598,7 @@
       <c r="R46" s="25"/>
       <c r="S46" s="19"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10067</v>
       </c>
@@ -13636,7 +13640,7 @@
       <c r="R47" s="25"/>
       <c r="S47" s="19"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>10733</v>
       </c>
@@ -13678,7 +13682,7 @@
       <c r="R48" s="19"/>
       <c r="S48" s="19"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>10736</v>
       </c>
@@ -13720,7 +13724,7 @@
       <c r="R49" s="19"/>
       <c r="S49" s="19"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10737</v>
       </c>
@@ -13762,7 +13766,7 @@
       <c r="R50" s="19"/>
       <c r="S50" s="19"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10738</v>
       </c>
@@ -13804,7 +13808,7 @@
       <c r="R51" s="19"/>
       <c r="S51" s="19"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10739</v>
       </c>
@@ -13846,7 +13850,7 @@
       <c r="R52" s="19"/>
       <c r="S52" s="19"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>17687</v>
       </c>
@@ -13886,7 +13890,7 @@
       <c r="R53" s="19"/>
       <c r="S53" s="19"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>23582</v>
       </c>
@@ -13928,7 +13932,7 @@
       <c r="R54" s="19"/>
       <c r="S54" s="19"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>23585</v>
       </c>
@@ -13970,7 +13974,7 @@
       <c r="R55" s="19"/>
       <c r="S55" s="19"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>40584</v>
       </c>
@@ -14012,7 +14016,7 @@
       <c r="R56" s="19"/>
       <c r="S56" s="19"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>40586</v>
       </c>
@@ -14054,7 +14058,7 @@
       <c r="R57" s="19"/>
       <c r="S57" s="19"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>40651</v>
       </c>
@@ -14096,7 +14100,7 @@
       <c r="R58" s="19"/>
       <c r="S58" s="19"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>41039</v>
       </c>
@@ -14138,7 +14142,7 @@
       <c r="R59" s="19"/>
       <c r="S59" s="19"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>41057</v>
       </c>
@@ -14180,7 +14184,7 @@
       <c r="R60" s="19"/>
       <c r="S60" s="19"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>41127</v>
       </c>
@@ -14222,7 +14226,7 @@
       <c r="R61" s="19"/>
       <c r="S61" s="19"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>41240</v>
       </c>
@@ -14264,7 +14268,7 @@
       <c r="R62" s="19"/>
       <c r="S62" s="19"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>41257</v>
       </c>
@@ -14306,7 +14310,7 @@
       <c r="R63" s="19"/>
       <c r="S63" s="19"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>41326</v>
       </c>
@@ -14348,7 +14352,7 @@
       <c r="R64" s="19"/>
       <c r="S64" s="19"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>41644</v>
       </c>
@@ -14388,7 +14392,7 @@
       <c r="R65" s="19"/>
       <c r="S65" s="19"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>41782</v>
       </c>
@@ -14428,7 +14432,7 @@
       <c r="R66" s="19"/>
       <c r="S66" s="19"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>41783</v>
       </c>
@@ -14468,7 +14472,7 @@
       <c r="R67" s="19"/>
       <c r="S67" s="19"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>41827</v>
       </c>
@@ -14508,7 +14512,7 @@
       <c r="R68" s="19"/>
       <c r="S68" s="19"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>41897</v>
       </c>
@@ -14548,7 +14552,7 @@
       <c r="R69" s="19"/>
       <c r="S69" s="19"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>42108</v>
       </c>
@@ -14590,7 +14594,7 @@
       <c r="R70" s="19"/>
       <c r="S70" s="19"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>42109</v>
       </c>
@@ -14632,7 +14636,7 @@
       <c r="R71" s="19"/>
       <c r="S71" s="19"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>42142</v>
       </c>
@@ -14674,7 +14678,7 @@
       <c r="R72" s="19"/>
       <c r="S72" s="19"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>43065</v>
       </c>
@@ -14716,7 +14720,7 @@
       <c r="R73" s="19"/>
       <c r="S73" s="19"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>43405</v>
       </c>
@@ -14758,7 +14762,7 @@
       <c r="R74" s="19"/>
       <c r="S74" s="19"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>44075</v>
       </c>
@@ -14798,7 +14802,7 @@
       <c r="R75" s="19"/>
       <c r="S75" s="19"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>44079</v>
       </c>
@@ -14838,7 +14842,7 @@
       <c r="R76" s="19"/>
       <c r="S76" s="19"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>44417</v>
       </c>
@@ -14878,7 +14882,7 @@
       <c r="R77" s="19"/>
       <c r="S77" s="19"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>44534</v>
       </c>
@@ -14918,7 +14922,7 @@
       <c r="R78" s="19"/>
       <c r="S78" s="19"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>44535</v>
       </c>
@@ -14958,7 +14962,7 @@
       <c r="R79" s="19"/>
       <c r="S79" s="19"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>44536</v>
       </c>
@@ -14998,7 +15002,7 @@
       <c r="R80" s="19"/>
       <c r="S80" s="19"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>44588</v>
       </c>
@@ -15042,7 +15046,7 @@
       </c>
       <c r="S81" s="19"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>44589</v>
       </c>
@@ -15086,7 +15090,7 @@
       </c>
       <c r="S82" s="19"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>44590</v>
       </c>
@@ -15130,7 +15134,7 @@
       </c>
       <c r="S83" s="19"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>44591</v>
       </c>
@@ -15174,7 +15178,7 @@
       </c>
       <c r="S84" s="19"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>45046</v>
       </c>
@@ -15214,7 +15218,7 @@
       <c r="R85" s="19"/>
       <c r="S85" s="19"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>45047</v>
       </c>
@@ -15254,7 +15258,7 @@
       <c r="R86" s="19"/>
       <c r="S86" s="19"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>46553</v>
       </c>
@@ -15294,7 +15298,7 @@
       <c r="R87" s="19"/>
       <c r="S87" s="19"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>46567</v>
       </c>
@@ -15334,7 +15338,7 @@
       <c r="R88" s="19"/>
       <c r="S88" s="19"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>46568</v>
       </c>
@@ -15374,7 +15378,7 @@
       <c r="R89" s="19"/>
       <c r="S89" s="19"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>46570</v>
       </c>
@@ -15414,7 +15418,7 @@
       <c r="R90" s="19"/>
       <c r="S90" s="19"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>46572</v>
       </c>
@@ -15454,7 +15458,7 @@
       <c r="R91" s="19"/>
       <c r="S91" s="19"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>47981</v>
       </c>
@@ -15494,7 +15498,7 @@
       <c r="R92" s="19"/>
       <c r="S92" s="19"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>48208</v>
       </c>
@@ -15534,7 +15538,7 @@
       <c r="R93" s="19"/>
       <c r="S93" s="19"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>48209</v>
       </c>
@@ -15574,7 +15578,7 @@
       <c r="R94" s="19"/>
       <c r="S94" s="19"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>48210</v>
       </c>
@@ -15614,7 +15618,7 @@
       <c r="R95" s="19"/>
       <c r="S95" s="19"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>48211</v>
       </c>
@@ -15654,7 +15658,7 @@
       <c r="R96" s="19"/>
       <c r="S96" s="19"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>48266</v>
       </c>
@@ -15694,7 +15698,7 @@
       <c r="R97" s="19"/>
       <c r="S97" s="19"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>48355</v>
       </c>
@@ -15734,7 +15738,7 @@
       <c r="R98" s="19"/>
       <c r="S98" s="19"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>48572</v>
       </c>
@@ -15774,7 +15778,7 @@
       <c r="R99" s="19"/>
       <c r="S99" s="19"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>48573</v>
       </c>
@@ -15814,7 +15818,7 @@
       <c r="R100" s="19"/>
       <c r="S100" s="19"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>48574</v>
       </c>
@@ -15854,7 +15858,7 @@
       <c r="R101" s="19"/>
       <c r="S101" s="19"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>48575</v>
       </c>
@@ -15894,7 +15898,7 @@
       <c r="R102" s="19"/>
       <c r="S102" s="19"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>48576</v>
       </c>
@@ -15934,7 +15938,7 @@
       <c r="R103" s="19"/>
       <c r="S103" s="19"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>48577</v>
       </c>
@@ -15974,7 +15978,7 @@
       <c r="R104" s="19"/>
       <c r="S104" s="19"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>48578</v>
       </c>
@@ -16030,7 +16034,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -16042,29 +16046,29 @@
     <col min="8" max="8" width="6" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
-    <col min="12" max="12" width="80.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="80.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
         <v>462</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -16099,7 +16103,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3431</v>
       </c>
@@ -16125,7 +16129,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>46391</v>
       </c>
@@ -16154,7 +16158,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>46400</v>
       </c>
@@ -16183,7 +16187,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>47905</v>
       </c>
@@ -16209,7 +16213,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>47915</v>
       </c>
@@ -16235,7 +16239,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>48373</v>
       </c>
@@ -16261,7 +16265,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>48378</v>
       </c>
@@ -16287,7 +16291,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>48423</v>
       </c>
@@ -16316,7 +16320,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>48432</v>
       </c>
@@ -16345,7 +16349,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>48434</v>
       </c>
@@ -16377,7 +16381,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>48435</v>
       </c>
@@ -16406,7 +16410,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>48438</v>
       </c>
@@ -16435,7 +16439,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>48441</v>
       </c>
@@ -16467,7 +16471,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>48446</v>
       </c>
@@ -16496,7 +16500,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>48449</v>
       </c>
@@ -16525,7 +16529,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>48452</v>
       </c>
@@ -16554,7 +16558,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -16568,7 +16572,7 @@
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -16582,7 +16586,7 @@
       <c r="K22" s="19"/>
       <c r="L22" s="19"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -16596,7 +16600,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -16610,7 +16614,7 @@
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -16624,7 +16628,7 @@
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -16638,7 +16642,7 @@
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -16652,7 +16656,7 @@
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -16681,7 +16685,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -16690,29 +16694,29 @@
     <col min="5" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
     <col min="8" max="10" width="6" customWidth="1"/>
-    <col min="12" max="12" width="119.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="119.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
         <v>462</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -16747,7 +16751,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1929</v>
       </c>
@@ -16771,7 +16775,7 @@
       </c>
       <c r="L4" s="19"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3412</v>
       </c>
@@ -16795,7 +16799,7 @@
       </c>
       <c r="L5" s="19"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4112</v>
       </c>
@@ -16824,7 +16828,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4146</v>
       </c>
@@ -16848,7 +16852,7 @@
       </c>
       <c r="L7" s="19"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4432</v>
       </c>
@@ -16872,7 +16876,7 @@
       </c>
       <c r="L8" s="19"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4468</v>
       </c>
@@ -16896,7 +16900,7 @@
       </c>
       <c r="L9" s="19"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4470</v>
       </c>
@@ -16920,7 +16924,7 @@
       </c>
       <c r="L10" s="19"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6451</v>
       </c>
@@ -16944,7 +16948,7 @@
       </c>
       <c r="L11" s="19"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6457</v>
       </c>
@@ -16968,7 +16972,7 @@
       </c>
       <c r="L12" s="19"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6526</v>
       </c>
@@ -16992,7 +16996,7 @@
       </c>
       <c r="L13" s="19"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6528</v>
       </c>
@@ -17016,7 +17020,7 @@
       </c>
       <c r="L14" s="19"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6911</v>
       </c>
@@ -17040,7 +17044,7 @@
       </c>
       <c r="L15" s="19"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7592</v>
       </c>
@@ -17064,7 +17068,7 @@
       </c>
       <c r="L16" s="19"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7694</v>
       </c>
@@ -17088,7 +17092,7 @@
       </c>
       <c r="L17" s="19"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7829</v>
       </c>
@@ -17112,7 +17116,7 @@
       </c>
       <c r="L18" s="19"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7833</v>
       </c>
@@ -17136,7 +17140,7 @@
       </c>
       <c r="L19" s="19"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7922</v>
       </c>
@@ -17160,7 +17164,7 @@
       </c>
       <c r="L20" s="19"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7923</v>
       </c>
@@ -17184,7 +17188,7 @@
       </c>
       <c r="L21" s="19"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8317</v>
       </c>
@@ -17208,7 +17212,7 @@
       </c>
       <c r="L22" s="19"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8561</v>
       </c>
@@ -17232,7 +17236,7 @@
       </c>
       <c r="L23" s="19"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8593</v>
       </c>
@@ -17256,7 +17260,7 @@
       </c>
       <c r="L24" s="19"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8596</v>
       </c>
@@ -17280,7 +17284,7 @@
       </c>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>8877</v>
       </c>
@@ -17304,7 +17308,7 @@
       </c>
       <c r="L26" s="19"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8889</v>
       </c>
@@ -17328,7 +17332,7 @@
       </c>
       <c r="L27" s="19"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8890</v>
       </c>
@@ -17352,7 +17356,7 @@
       </c>
       <c r="L28" s="19"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8891</v>
       </c>
@@ -17376,7 +17380,7 @@
       </c>
       <c r="L29" s="19"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>9091</v>
       </c>
@@ -17405,7 +17409,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>9092</v>
       </c>
@@ -17434,7 +17438,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>11967</v>
       </c>
@@ -17458,7 +17462,7 @@
       </c>
       <c r="L32" s="19"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>13425</v>
       </c>
@@ -17482,7 +17486,7 @@
       </c>
       <c r="L33" s="19"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>13426</v>
       </c>
@@ -17506,7 +17510,7 @@
       </c>
       <c r="L34" s="19"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>13676</v>
       </c>
@@ -17530,7 +17534,7 @@
       </c>
       <c r="L35" s="19"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>13804</v>
       </c>
@@ -17554,7 +17558,7 @@
       </c>
       <c r="L36" s="19"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>13834</v>
       </c>
@@ -17578,7 +17582,7 @@
       </c>
       <c r="L37" s="19"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>13849</v>
       </c>
@@ -17602,7 +17606,7 @@
       </c>
       <c r="L38" s="19"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>13930</v>
       </c>
@@ -17626,7 +17630,7 @@
       </c>
       <c r="L39" s="19"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>14150</v>
       </c>
@@ -17650,7 +17654,7 @@
       </c>
       <c r="L40" s="19"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>14163</v>
       </c>
@@ -17674,7 +17678,7 @@
       </c>
       <c r="L41" s="19"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>14194</v>
       </c>
@@ -17698,7 +17702,7 @@
       </c>
       <c r="L42" s="19"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>17643</v>
       </c>
@@ -17722,7 +17726,7 @@
       </c>
       <c r="L43" s="19"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>17645</v>
       </c>
@@ -17746,7 +17750,7 @@
       </c>
       <c r="L44" s="19"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>21967</v>
       </c>
@@ -17770,7 +17774,7 @@
       </c>
       <c r="L45" s="19"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>23425</v>
       </c>
@@ -17794,7 +17798,7 @@
       </c>
       <c r="L46" s="19"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>23426</v>
       </c>
@@ -17818,7 +17822,7 @@
       </c>
       <c r="L47" s="19"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>23676</v>
       </c>
@@ -17842,7 +17846,7 @@
       </c>
       <c r="L48" s="19"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>23804</v>
       </c>
@@ -17866,7 +17870,7 @@
       </c>
       <c r="L49" s="19"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>23834</v>
       </c>
@@ -17890,7 +17894,7 @@
       </c>
       <c r="L50" s="19"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>23849</v>
       </c>
@@ -17914,7 +17918,7 @@
       </c>
       <c r="L51" s="19"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>23930</v>
       </c>
@@ -17938,7 +17942,7 @@
       </c>
       <c r="L52" s="19"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>24150</v>
       </c>
@@ -17962,7 +17966,7 @@
       </c>
       <c r="L53" s="19"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>24163</v>
       </c>
@@ -17986,7 +17990,7 @@
       </c>
       <c r="L54" s="19"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>24194</v>
       </c>
@@ -18010,7 +18014,7 @@
       </c>
       <c r="L55" s="19"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>27643</v>
       </c>
@@ -18034,7 +18038,7 @@
       </c>
       <c r="L56" s="19"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>27645</v>
       </c>
@@ -18058,7 +18062,7 @@
       </c>
       <c r="L57" s="19"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>44555</v>
       </c>
@@ -18082,7 +18086,7 @@
       </c>
       <c r="L58" s="19"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>44556</v>
       </c>
@@ -18106,7 +18110,7 @@
       </c>
       <c r="L59" s="19"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>44557</v>
       </c>
@@ -18130,7 +18134,7 @@
       </c>
       <c r="L60" s="19"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>44605</v>
       </c>
@@ -18154,7 +18158,7 @@
       </c>
       <c r="L61" s="19"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>44606</v>
       </c>
@@ -18178,7 +18182,7 @@
       </c>
       <c r="L62" s="19"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>44677</v>
       </c>
@@ -18202,7 +18206,7 @@
       </c>
       <c r="L63" s="19"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>44681</v>
       </c>
@@ -18226,7 +18230,7 @@
       </c>
       <c r="L64" s="19"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>44686</v>
       </c>
@@ -18250,7 +18254,7 @@
       </c>
       <c r="L65" s="19"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>45062</v>
       </c>
@@ -18274,7 +18278,7 @@
       </c>
       <c r="L66" s="19"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>45107</v>
       </c>
@@ -18298,7 +18302,7 @@
       </c>
       <c r="L67" s="19"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>45108</v>
       </c>
@@ -18322,7 +18326,7 @@
       </c>
       <c r="L68" s="19"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>45109</v>
       </c>
@@ -18346,7 +18350,7 @@
       </c>
       <c r="L69" s="19"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>45110</v>
       </c>
@@ -18370,7 +18374,7 @@
       </c>
       <c r="L70" s="19"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>45254</v>
       </c>
@@ -18394,7 +18398,7 @@
       </c>
       <c r="L71" s="19"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>45333</v>
       </c>
@@ -18418,7 +18422,7 @@
       </c>
       <c r="L72" s="19"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>45334</v>
       </c>
@@ -18442,7 +18446,7 @@
       </c>
       <c r="L73" s="19"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>45335</v>
       </c>
@@ -18466,7 +18470,7 @@
       </c>
       <c r="L74" s="19"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>45435</v>
       </c>
@@ -18490,7 +18494,7 @@
       </c>
       <c r="L75" s="19"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>45436</v>
       </c>
@@ -18514,7 +18518,7 @@
       </c>
       <c r="L76" s="19"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>45472</v>
       </c>
@@ -18538,7 +18542,7 @@
       </c>
       <c r="L77" s="19"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>45473</v>
       </c>
@@ -18562,7 +18566,7 @@
       </c>
       <c r="L78" s="19"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>45474</v>
       </c>
@@ -18586,7 +18590,7 @@
       </c>
       <c r="L79" s="19"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>45482</v>
       </c>
@@ -18610,7 +18614,7 @@
       </c>
       <c r="L80" s="19"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>45486</v>
       </c>
@@ -18634,7 +18638,7 @@
       </c>
       <c r="L81" s="19"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>45487</v>
       </c>
@@ -18658,7 +18662,7 @@
       </c>
       <c r="L82" s="19"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>45583</v>
       </c>
@@ -18682,7 +18686,7 @@
       </c>
       <c r="L83" s="19"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>45584</v>
       </c>
@@ -18706,7 +18710,7 @@
       </c>
       <c r="L84" s="19"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>45585</v>
       </c>
@@ -18730,7 +18734,7 @@
       </c>
       <c r="L85" s="19"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>45673</v>
       </c>
@@ -18754,7 +18758,7 @@
       </c>
       <c r="L86" s="19"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>45674</v>
       </c>
@@ -18778,7 +18782,7 @@
       </c>
       <c r="L87" s="19"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>45896</v>
       </c>
@@ -18802,7 +18806,7 @@
       </c>
       <c r="L88" s="19"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>45897</v>
       </c>
@@ -18826,7 +18830,7 @@
       </c>
       <c r="L89" s="19"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>46363</v>
       </c>
@@ -18850,7 +18854,7 @@
       </c>
       <c r="L90" s="19"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>46364</v>
       </c>
@@ -18874,7 +18878,7 @@
       </c>
       <c r="L91" s="19"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>46396</v>
       </c>
@@ -18898,7 +18902,7 @@
       </c>
       <c r="L92" s="19"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>46679</v>
       </c>
@@ -18927,7 +18931,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>46815</v>
       </c>
@@ -18951,7 +18955,7 @@
       </c>
       <c r="L94" s="19"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>46816</v>
       </c>
@@ -18975,7 +18979,7 @@
       </c>
       <c r="L95" s="19"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>46817</v>
       </c>
@@ -18999,7 +19003,7 @@
       </c>
       <c r="L96" s="19"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>46818</v>
       </c>
@@ -19023,7 +19027,7 @@
       </c>
       <c r="L97" s="19"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>47231</v>
       </c>
@@ -19047,7 +19051,7 @@
       </c>
       <c r="L98" s="19"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>47270</v>
       </c>
@@ -19071,7 +19075,7 @@
       </c>
       <c r="L99" s="19"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>47271</v>
       </c>
@@ -19095,7 +19099,7 @@
       </c>
       <c r="L100" s="19"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>47386</v>
       </c>
@@ -19119,7 +19123,7 @@
       </c>
       <c r="L101" s="19"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>47387</v>
       </c>
@@ -19143,7 +19147,7 @@
       </c>
       <c r="L102" s="19"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>47413</v>
       </c>
@@ -19167,7 +19171,7 @@
       </c>
       <c r="L103" s="19"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>47414</v>
       </c>
@@ -19191,7 +19195,7 @@
       </c>
       <c r="L104" s="19"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>47840</v>
       </c>
@@ -19220,7 +19224,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>47841</v>
       </c>
@@ -19249,7 +19253,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>47844</v>
       </c>
@@ -19278,7 +19282,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>47949</v>
       </c>
@@ -19302,7 +19306,7 @@
       </c>
       <c r="L108" s="19"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>47979</v>
       </c>
@@ -19326,7 +19330,7 @@
       </c>
       <c r="L109" s="19"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>47980</v>
       </c>
@@ -19350,7 +19354,7 @@
       </c>
       <c r="L110" s="19"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>48030</v>
       </c>
@@ -19374,7 +19378,7 @@
       </c>
       <c r="L111" s="19"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>48078</v>
       </c>
@@ -19398,7 +19402,7 @@
       </c>
       <c r="L112" s="19"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>48086</v>
       </c>
@@ -19422,7 +19426,7 @@
       </c>
       <c r="L113" s="19"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>48182</v>
       </c>
@@ -19451,7 +19455,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>48195</v>
       </c>
@@ -19475,7 +19479,7 @@
       </c>
       <c r="L115" s="19"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>48235</v>
       </c>
@@ -19499,7 +19503,7 @@
       </c>
       <c r="L116" s="19"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>48254</v>
       </c>
@@ -19523,7 +19527,7 @@
       </c>
       <c r="L117" s="19"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>48255</v>
       </c>
@@ -19547,7 +19551,7 @@
       </c>
       <c r="L118" s="19"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>48256</v>
       </c>
@@ -19571,7 +19575,7 @@
       </c>
       <c r="L119" s="19"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>48310</v>
       </c>
@@ -19595,7 +19599,7 @@
       </c>
       <c r="L120" s="19"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>48311</v>
       </c>
@@ -19619,7 +19623,7 @@
       </c>
       <c r="L121" s="19"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>48346</v>
       </c>
@@ -19643,7 +19647,7 @@
       </c>
       <c r="L122" s="19"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>48347</v>
       </c>
@@ -19667,7 +19671,7 @@
       </c>
       <c r="L123" s="19"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>48348</v>
       </c>
@@ -19691,7 +19695,7 @@
       </c>
       <c r="L124" s="19"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>48424</v>
       </c>
@@ -19715,7 +19719,7 @@
       </c>
       <c r="L125" s="19"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>48433</v>
       </c>
@@ -19739,7 +19743,7 @@
       </c>
       <c r="L126" s="19"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>48436</v>
       </c>
@@ -19763,7 +19767,7 @@
       </c>
       <c r="L127" s="19"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>48439</v>
       </c>
@@ -19787,7 +19791,7 @@
       </c>
       <c r="L128" s="19"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>48601</v>
       </c>
@@ -19811,7 +19815,7 @@
       </c>
       <c r="L129" s="19"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>48602</v>
       </c>
@@ -19835,7 +19839,7 @@
       </c>
       <c r="L130" s="19"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>90000</v>
       </c>
@@ -19864,7 +19868,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="19"/>
       <c r="B133" s="19"/>
       <c r="C133" s="19"/>
@@ -19878,7 +19882,7 @@
       <c r="K133" s="19"/>
       <c r="L133" s="19"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="19"/>
       <c r="B134" s="19"/>
       <c r="C134" s="19"/>
@@ -19892,7 +19896,7 @@
       <c r="K134" s="19"/>
       <c r="L134" s="19"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="19"/>
       <c r="B135" s="19"/>
       <c r="C135" s="19"/>
@@ -19906,7 +19910,7 @@
       <c r="K135" s="19"/>
       <c r="L135" s="19"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="19"/>
       <c r="B136" s="19"/>
       <c r="C136" s="19"/>
@@ -19920,7 +19924,7 @@
       <c r="K136" s="19"/>
       <c r="L136" s="19"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="19"/>
       <c r="B137" s="19"/>
       <c r="C137" s="19"/>
@@ -19934,7 +19938,7 @@
       <c r="K137" s="19"/>
       <c r="L137" s="19"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="19"/>
       <c r="B138" s="19"/>
       <c r="C138" s="19"/>
@@ -19948,7 +19952,7 @@
       <c r="K138" s="19"/>
       <c r="L138" s="19"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="19"/>
       <c r="B139" s="19"/>
       <c r="C139" s="19"/>
@@ -19962,7 +19966,7 @@
       <c r="K139" s="19"/>
       <c r="L139" s="19"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="19"/>
       <c r="B140" s="19"/>
       <c r="C140" s="19"/>
@@ -19976,7 +19980,7 @@
       <c r="K140" s="19"/>
       <c r="L140" s="19"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="19"/>
       <c r="B141" s="19"/>
       <c r="C141" s="19"/>
@@ -19990,7 +19994,7 @@
       <c r="K141" s="19"/>
       <c r="L141" s="19"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="19"/>
       <c r="B142" s="19"/>
       <c r="C142" s="19"/>
@@ -20004,7 +20008,7 @@
       <c r="K142" s="19"/>
       <c r="L142" s="19"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="19"/>
       <c r="B143" s="19"/>
       <c r="C143" s="19"/>
@@ -20018,7 +20022,7 @@
       <c r="K143" s="19"/>
       <c r="L143" s="19"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="19"/>
       <c r="B144" s="19"/>
       <c r="C144" s="19"/>
@@ -20032,7 +20036,7 @@
       <c r="K144" s="19"/>
       <c r="L144" s="19"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="19"/>
       <c r="B145" s="19"/>
       <c r="C145" s="19"/>
@@ -20046,7 +20050,7 @@
       <c r="K145" s="19"/>
       <c r="L145" s="19"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="19"/>
       <c r="B146" s="19"/>
       <c r="C146" s="19"/>
@@ -20060,7 +20064,7 @@
       <c r="K146" s="19"/>
       <c r="L146" s="19"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="19"/>
       <c r="B147" s="19"/>
       <c r="C147" s="19"/>
@@ -20074,7 +20078,7 @@
       <c r="K147" s="19"/>
       <c r="L147" s="19"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="19"/>
       <c r="B148" s="19"/>
       <c r="C148" s="19"/>
@@ -20088,7 +20092,7 @@
       <c r="K148" s="19"/>
       <c r="L148" s="19"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="19"/>
       <c r="B149" s="19"/>
       <c r="C149" s="19"/>
@@ -20102,7 +20106,7 @@
       <c r="K149" s="19"/>
       <c r="L149" s="19"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="19"/>
       <c r="B150" s="19"/>
       <c r="C150" s="19"/>
@@ -20116,7 +20120,7 @@
       <c r="K150" s="19"/>
       <c r="L150" s="19"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="19"/>
       <c r="B151" s="19"/>
       <c r="C151" s="19"/>
@@ -20130,7 +20134,7 @@
       <c r="K151" s="19"/>
       <c r="L151" s="19"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="19"/>
       <c r="B152" s="19"/>
       <c r="C152" s="19"/>
@@ -20144,7 +20148,7 @@
       <c r="K152" s="19"/>
       <c r="L152" s="19"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="19"/>
       <c r="B153" s="19"/>
       <c r="C153" s="19"/>
@@ -20158,7 +20162,7 @@
       <c r="K153" s="19"/>
       <c r="L153" s="19"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="19"/>
       <c r="B154" s="19"/>
       <c r="C154" s="19"/>
@@ -20172,7 +20176,7 @@
       <c r="K154" s="19"/>
       <c r="L154" s="19"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="19"/>
       <c r="B155" s="19"/>
       <c r="C155" s="19"/>
@@ -20186,7 +20190,7 @@
       <c r="K155" s="19"/>
       <c r="L155" s="19"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="19"/>
       <c r="B156" s="19"/>
       <c r="C156" s="19"/>
@@ -20200,7 +20204,7 @@
       <c r="K156" s="19"/>
       <c r="L156" s="19"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="19"/>
       <c r="B157" s="19"/>
       <c r="C157" s="19"/>
@@ -20214,7 +20218,7 @@
       <c r="K157" s="19"/>
       <c r="L157" s="19"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="19"/>
       <c r="B158" s="19"/>
       <c r="C158" s="19"/>
@@ -20228,7 +20232,7 @@
       <c r="K158" s="19"/>
       <c r="L158" s="19"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="19"/>
       <c r="B159" s="19"/>
       <c r="C159" s="19"/>
@@ -20242,7 +20246,7 @@
       <c r="K159" s="19"/>
       <c r="L159" s="19"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="19"/>
       <c r="B160" s="19"/>
       <c r="C160" s="19"/>
@@ -20256,7 +20260,7 @@
       <c r="K160" s="19"/>
       <c r="L160" s="19"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="19"/>
       <c r="B161" s="19"/>
       <c r="C161" s="19"/>
@@ -20270,7 +20274,7 @@
       <c r="K161" s="19"/>
       <c r="L161" s="19"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="19"/>
       <c r="B162" s="19"/>
       <c r="C162" s="19"/>
@@ -20284,7 +20288,7 @@
       <c r="K162" s="19"/>
       <c r="L162" s="19"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="19"/>
       <c r="B163" s="19"/>
       <c r="C163" s="19"/>
@@ -20298,7 +20302,7 @@
       <c r="K163" s="19"/>
       <c r="L163" s="19"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="19"/>
       <c r="B164" s="19"/>
       <c r="C164" s="19"/>
